--- a/biology/Médecine/Ionogramme/Ionogramme.xlsx
+++ b/biology/Médecine/Ionogramme/Ionogramme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ionogramme est un examen de laboratoire de biologie médicale qui analyse la concentration en électrolytes d’un liquide organique (sang, urines, liquide céphalo-rachidien). Ces électrolytes sont des sels, acides, bases, capables de se dissocier en solution pour former des ions. Ces ions sont de deux types :
 les cations (ions positifs attirés par la cathode) tels que :
@@ -525,7 +537,9 @@
           <t>Types d'ionogramme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Sanguins :
 ionogramme simple : Na+ ; K+ ; Cl− ;
@@ -562,15 +576,124 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Préanalytiques
-Le prélèvement sanguin se fait à jeun (pour certains paramètres uniquement) sur sang veineux ou artériel (si gazométrie) dans un tube sec (sérum) ou avec anticoagulant (héparine de lithium pour conservation du plasma). L'acheminement au laboratoire s'effectue rapidement afin d'éviter toute hémolyse. L'échantillon sera centrifugé (pour obtention du plasma seul) ou non (sang total).
-Analytiques
-Analyse et détermination de l'ionogramme. Validation des résultats.
-Post-analytiques
-Diffusion du résultat auprès du prescripteur.
-Valeurs normales
-Interprétation
-Le ionogramme permet d'interpréter :
+          <t>Préanalytiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prélèvement sanguin se fait à jeun (pour certains paramètres uniquement) sur sang veineux ou artériel (si gazométrie) dans un tube sec (sérum) ou avec anticoagulant (héparine de lithium pour conservation du plasma). L'acheminement au laboratoire s'effectue rapidement afin d'éviter toute hémolyse. L'échantillon sera centrifugé (pour obtention du plasma seul) ou non (sang total).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ionogramme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ionogramme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Conditions de l'ionogramme sanguin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Analytiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Analyse et détermination de l'ionogramme. Validation des résultats.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ionogramme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ionogramme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Conditions de l'ionogramme sanguin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Post-analytiques</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diffusion du résultat auprès du prescripteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ionogramme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ionogramme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Conditions de l'ionogramme sanguin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Interprétation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ionogramme permet d'interpréter :
 le trou anionique est la somme des cations sanguins soustraits de la somme des anions souvent simplifié par la formule suivante. Trou anionique = ([Na+] + [K+])  - ([Cl −] + [HCO3−]) généralement en mmol/L ;
 il permet aussi de calculer osmolarité sanguine par différentes formules tel que : Osmolarité sanguine = ([Na+] + [K+]) x 2 + Urémie + glycémie.
 https://www.fiches-ide.fr/normes-biologiques/recommandations-et-ordre-de-prelevement/#:~:text=Le%20tube%20EDTA%20contient%20du,Les%20num%C3%A9rations
@@ -578,35 +701,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Ionogramme</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ionogramme</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Ionogramme urinaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un examen de la biologie médicale qui fait partie des tests biochimiques. Il dépend du dépistage et de la surveillance des troubles de certains ions présents dans les urines. 
-Valeurs normales
-Valeurs pour un adulte moyen, variable en fonction des laboratoires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ionogramme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ionogramme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Ionogramme urinaire</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Valeurs normales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Valeurs pour un adulte moyen, variable en fonction des laboratoires.
 </t>
         </is>
       </c>
